--- a/Data/landings and indices/recalculated catches data and indices_only_mean_prop.xlsx
+++ b/Data/landings and indices/recalculated catches data and indices_only_mean_prop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/jasper_bleijenberg_wur_nl/Documents/new_git_clones/RobinHood/Data/landings and indices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="952" documentId="13_ncr:1_{E53DBBBD-A695-4406-B618-AC7389856004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{264D2686-C494-4ADC-813E-0133143A5B82}"/>
+  <xr:revisionPtr revIDLastSave="953" documentId="13_ncr:1_{E53DBBBD-A695-4406-B618-AC7389856004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8A14F73-DA56-41E1-9ED5-C011D5F55301}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{0237CAE1-8F1C-4D66-B076-3A925128568D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{0237CAE1-8F1C-4D66-B076-3A925128568D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3315,7 +3315,7 @@
                   <c:v>1903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>151</c:v>
+                  <c:v>1571</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1083</c:v>
@@ -3826,130 +3826,130 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>83.288942924022606</c:v>
+                  <c:v>65.897270524845695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.21464717538706</c:v>
+                  <c:v>80.079885178487032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.421584216104648</c:v>
+                  <c:v>75.496479223346839</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.044858008987248</c:v>
+                  <c:v>77.571983806806543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.956430480932553</c:v>
+                  <c:v>71.172511341139113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.251795049704839</c:v>
+                  <c:v>72.988577851666363</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.240125941015535</c:v>
+                  <c:v>68.232213181237867</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.981909246561045</c:v>
+                  <c:v>59.324839343889956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.977306027581307</c:v>
+                  <c:v>64.85951823311585</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.261001487664288</c:v>
+                  <c:v>61.919220073214589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.563431946146139</c:v>
+                  <c:v>74.026330143396223</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101.97976869831115</c:v>
+                  <c:v>80.685240681996106</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.23552272203581</c:v>
+                  <c:v>73.766892070463754</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86.45873209042243</c:v>
+                  <c:v>68.40517189652617</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.900547608215916</c:v>
+                  <c:v>63.21641043787691</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80.665669131140007</c:v>
+                  <c:v>63.821765941385991</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.91221671690522</c:v>
+                  <c:v>67.972775108305399</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63.614389477403101</c:v>
+                  <c:v>50.330986148897892</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.447062981733126</c:v>
+                  <c:v>63.648807226097681</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>103.51001174415934</c:v>
+                  <c:v>81.895951689014268</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84.600579820463921</c:v>
+                  <c:v>66.935022816575554</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>135.86372185637811</c:v>
+                  <c:v>107.49384155168399</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>129.96135582239225</c:v>
+                  <c:v>102.82395623889965</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>132.25672039116452</c:v>
+                  <c:v>104.64002274942689</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>156.63130605003204</c:v>
+                  <c:v>123.92491950407334</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>168.98255349152095</c:v>
+                  <c:v>133.6970869178628</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>187.67337926580947</c:v>
+                  <c:v>148.4850570750132</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>231.83182144599996</c:v>
+                  <c:v>183.42271756325161</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>218.82475555629037</c:v>
+                  <c:v>173.13167400359723</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>219.26196785510416</c:v>
+                  <c:v>173.47759143417383</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>165.81276432512112</c:v>
+                  <c:v>131.1891855461823</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>193.13853300098157</c:v>
+                  <c:v>152.80902495722094</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>202.75720357488444</c:v>
+                  <c:v>160.41920842990652</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>224.83642466497969</c:v>
+                  <c:v>177.88803867402572</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>235.00161061239976</c:v>
+                  <c:v>185.93061893493208</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>252.81801178906076</c:v>
+                  <c:v>200.02675423092927</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>193.4664422250919</c:v>
+                  <c:v>153.0684630301534</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>171.38722113499665</c:v>
+                  <c:v>135.59963278603419</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>179.03843636423758</c:v>
+                  <c:v>141.65318782112502</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>199.36880825907775</c:v>
+                  <c:v>157.73834834293774</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>170.95000883618289</c:v>
+                  <c:v>135.25371535545759</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>246.04122115744738</c:v>
+                  <c:v>194.66503405699169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15175,7 +15175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBEBB3B-E13D-4373-9E12-7CB3B45AD0DD}">
   <dimension ref="B3:X110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
@@ -26015,8 +26015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ADCE0B-F74A-4228-BEFC-87C4B67A2672}">
   <dimension ref="B3:M107"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73:E82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26176,11 +26176,11 @@
       </c>
       <c r="E9" s="93">
         <f>D9*M$98</f>
-        <v>83.288942924022606</v>
+        <v>65.897270524845695</v>
       </c>
       <c r="F9" s="94">
         <f>D9+E9</f>
-        <v>845.28894292402265</v>
+        <v>827.89727052484568</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
@@ -26199,11 +26199,11 @@
       </c>
       <c r="E10" s="93">
         <f t="shared" ref="E10:E72" si="0">D10*M$98</f>
-        <v>101.21464717538706</v>
+        <v>80.079885178487032</v>
       </c>
       <c r="F10" s="94">
         <f t="shared" ref="F10:F73" si="1">D10+E10</f>
-        <v>1027.214647175387</v>
+        <v>1006.0798851784871</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -26222,11 +26222,11 @@
       </c>
       <c r="E11" s="93">
         <f t="shared" si="0"/>
-        <v>95.421584216104648</v>
+        <v>75.496479223346839</v>
       </c>
       <c r="F11" s="94">
         <f t="shared" si="1"/>
-        <v>968.42158421610463</v>
+        <v>948.4964792233468</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -26245,11 +26245,11 @@
       </c>
       <c r="E12" s="93">
         <f t="shared" si="0"/>
-        <v>98.044858008987248</v>
+        <v>77.571983806806543</v>
       </c>
       <c r="F12" s="94">
         <f t="shared" si="1"/>
-        <v>995.04485800898726</v>
+        <v>974.57198380680654</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
@@ -26268,11 +26268,11 @@
       </c>
       <c r="E13" s="93">
         <f t="shared" si="0"/>
-        <v>89.956430480932553</v>
+        <v>71.172511341139113</v>
       </c>
       <c r="F13" s="94">
         <f t="shared" si="1"/>
-        <v>912.95643048093257</v>
+        <v>894.17251134113917</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -26291,11 +26291,11 @@
       </c>
       <c r="E14" s="93">
         <f t="shared" si="0"/>
-        <v>92.251795049704839</v>
+        <v>72.988577851666363</v>
       </c>
       <c r="F14" s="94">
         <f t="shared" si="1"/>
-        <v>936.25179504970481</v>
+        <v>916.98857785166638</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -26314,11 +26314,11 @@
       </c>
       <c r="E15" s="93">
         <f t="shared" si="0"/>
-        <v>86.240125941015535</v>
+        <v>68.232213181237867</v>
       </c>
       <c r="F15" s="94">
         <f t="shared" si="1"/>
-        <v>875.24012594101555</v>
+        <v>857.23221318123785</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -26337,11 +26337,11 @@
       </c>
       <c r="E16" s="93">
         <f t="shared" si="0"/>
-        <v>74.981909246561045</v>
+        <v>59.324839343889956</v>
       </c>
       <c r="F16" s="94">
         <f t="shared" si="1"/>
-        <v>760.98190924656103</v>
+        <v>745.32483934388995</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -26360,11 +26360,11 @@
       </c>
       <c r="E17" s="93">
         <f t="shared" si="0"/>
-        <v>81.977306027581307</v>
+        <v>64.85951823311585</v>
       </c>
       <c r="F17" s="94">
         <f t="shared" si="1"/>
-        <v>831.97730602758134</v>
+        <v>814.85951823311586</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
@@ -26383,11 +26383,11 @@
       </c>
       <c r="E18" s="93">
         <f t="shared" si="0"/>
-        <v>78.261001487664288</v>
+        <v>61.919220073214589</v>
       </c>
       <c r="F18" s="94">
         <f t="shared" si="1"/>
-        <v>794.26100148766432</v>
+        <v>777.91922007321455</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
@@ -26406,11 +26406,11 @@
       </c>
       <c r="E19" s="93">
         <f t="shared" si="0"/>
-        <v>93.563431946146139</v>
+        <v>74.026330143396223</v>
       </c>
       <c r="F19" s="94">
         <f t="shared" si="1"/>
-        <v>949.56343194614612</v>
+        <v>930.02633014339619</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -26429,11 +26429,11 @@
       </c>
       <c r="E20" s="93">
         <f t="shared" si="0"/>
-        <v>101.97976869831115</v>
+        <v>80.685240681996106</v>
       </c>
       <c r="F20" s="94">
         <f t="shared" si="1"/>
-        <v>1034.9797686983111</v>
+        <v>1013.6852406819961</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
@@ -26452,11 +26452,11 @@
       </c>
       <c r="E21" s="93">
         <f t="shared" si="0"/>
-        <v>93.23552272203581</v>
+        <v>73.766892070463754</v>
       </c>
       <c r="F21" s="94">
         <f t="shared" si="1"/>
-        <v>946.23552272203585</v>
+        <v>926.76689207046377</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
@@ -26475,11 +26475,11 @@
       </c>
       <c r="E22" s="93">
         <f t="shared" si="0"/>
-        <v>86.45873209042243</v>
+        <v>68.40517189652617</v>
       </c>
       <c r="F22" s="94">
         <f t="shared" si="1"/>
-        <v>877.45873209042247</v>
+        <v>859.40517189652621</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -26498,11 +26498,11 @@
       </c>
       <c r="E23" s="93">
         <f t="shared" si="0"/>
-        <v>79.900547608215916</v>
+        <v>63.21641043787691</v>
       </c>
       <c r="F23" s="94">
         <f>D23+E23</f>
-        <v>810.9005476082159</v>
+        <v>794.2164104378769</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -26521,11 +26521,11 @@
       </c>
       <c r="E24" s="93">
         <f t="shared" si="0"/>
-        <v>80.665669131140007</v>
+        <v>63.821765941385991</v>
       </c>
       <c r="F24" s="94">
         <f t="shared" si="1"/>
-        <v>818.66566913114002</v>
+        <v>801.82176594138605</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -26544,11 +26544,11 @@
       </c>
       <c r="E25" s="93">
         <f t="shared" si="0"/>
-        <v>85.91221671690522</v>
+        <v>67.972775108305399</v>
       </c>
       <c r="F25" s="94">
         <f t="shared" si="1"/>
-        <v>871.91221671690528</v>
+        <v>853.97277510830543</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
@@ -26567,11 +26567,11 @@
       </c>
       <c r="E26" s="93">
         <f t="shared" si="0"/>
-        <v>63.614389477403101</v>
+        <v>50.330986148897892</v>
       </c>
       <c r="F26" s="94">
         <f t="shared" si="1"/>
-        <v>645.61438947740305</v>
+        <v>632.33098614889786</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -26590,11 +26590,11 @@
       </c>
       <c r="E27" s="93">
         <f t="shared" si="0"/>
-        <v>80.447062981733126</v>
+        <v>63.648807226097681</v>
       </c>
       <c r="F27" s="94">
         <f t="shared" si="1"/>
-        <v>816.4470629817331</v>
+        <v>799.64880722609769</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -26613,11 +26613,11 @@
       </c>
       <c r="E28" s="93">
         <f t="shared" si="0"/>
-        <v>103.51001174415934</v>
+        <v>81.895951689014268</v>
       </c>
       <c r="F28" s="94">
         <f t="shared" si="1"/>
-        <v>1050.5100117441593</v>
+        <v>1028.8959516890143</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -26636,11 +26636,11 @@
       </c>
       <c r="E29" s="93">
         <f t="shared" si="0"/>
-        <v>84.600579820463921</v>
+        <v>66.935022816575554</v>
       </c>
       <c r="F29" s="94">
         <f t="shared" si="1"/>
-        <v>858.60057982046396</v>
+        <v>840.93502281657561</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -26659,11 +26659,11 @@
       </c>
       <c r="E30" s="93">
         <f t="shared" si="0"/>
-        <v>135.86372185637811</v>
+        <v>107.49384155168399</v>
       </c>
       <c r="F30" s="94">
         <f t="shared" si="1"/>
-        <v>1378.8637218563781</v>
+        <v>1350.493841551684</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -26682,11 +26682,11 @@
       </c>
       <c r="E31" s="93">
         <f t="shared" si="0"/>
-        <v>129.96135582239225</v>
+        <v>102.82395623889965</v>
       </c>
       <c r="F31" s="94">
         <f t="shared" si="1"/>
-        <v>1318.9613558223923</v>
+        <v>1291.8239562388997</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -26705,11 +26705,11 @@
       </c>
       <c r="E32" s="93">
         <f t="shared" si="0"/>
-        <v>132.25672039116452</v>
+        <v>104.64002274942689</v>
       </c>
       <c r="F32" s="94">
         <f t="shared" si="1"/>
-        <v>1342.2567203911644</v>
+        <v>1314.6400227494269</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -26728,11 +26728,11 @@
       </c>
       <c r="E33" s="93">
         <f t="shared" si="0"/>
-        <v>156.63130605003204</v>
+        <v>123.92491950407334</v>
       </c>
       <c r="F33" s="94">
         <f t="shared" si="1"/>
-        <v>1589.631306050032</v>
+        <v>1556.9249195040734</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
@@ -26751,11 +26751,11 @@
       </c>
       <c r="E34" s="93">
         <f t="shared" si="0"/>
-        <v>168.98255349152095</v>
+        <v>133.6970869178628</v>
       </c>
       <c r="F34" s="94">
         <f t="shared" si="1"/>
-        <v>1714.982553491521</v>
+        <v>1679.6970869178629</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
@@ -26774,11 +26774,11 @@
       </c>
       <c r="E35" s="93">
         <f t="shared" si="0"/>
-        <v>187.67337926580947</v>
+        <v>148.4850570750132</v>
       </c>
       <c r="F35" s="94">
         <f t="shared" si="1"/>
-        <v>1904.6733792658094</v>
+        <v>1865.4850570750132</v>
       </c>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
@@ -26797,11 +26797,11 @@
       </c>
       <c r="E36" s="93">
         <f t="shared" si="0"/>
-        <v>231.83182144599996</v>
+        <v>183.42271756325161</v>
       </c>
       <c r="F36" s="94">
         <f t="shared" si="1"/>
-        <v>2352.831821446</v>
+        <v>2304.4227175632518</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
@@ -26820,11 +26820,11 @@
       </c>
       <c r="E37" s="93">
         <f t="shared" si="0"/>
-        <v>218.82475555629037</v>
+        <v>173.13167400359723</v>
       </c>
       <c r="F37" s="94">
         <f t="shared" si="1"/>
-        <v>2220.8247555562903</v>
+        <v>2175.1316740035973</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -26843,11 +26843,11 @@
       </c>
       <c r="E38" s="93">
         <f t="shared" si="0"/>
-        <v>219.26196785510416</v>
+        <v>173.47759143417383</v>
       </c>
       <c r="F38" s="94">
         <f t="shared" si="1"/>
-        <v>2225.2619678551041</v>
+        <v>2179.477591434174</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -26866,11 +26866,11 @@
       </c>
       <c r="E39" s="93">
         <f t="shared" si="0"/>
-        <v>165.81276432512112</v>
+        <v>131.1891855461823</v>
       </c>
       <c r="F39" s="94">
         <f t="shared" si="1"/>
-        <v>1682.8127643251212</v>
+        <v>1648.1891855461822</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
@@ -26889,11 +26889,11 @@
       </c>
       <c r="E40" s="93">
         <f t="shared" si="0"/>
-        <v>193.13853300098157</v>
+        <v>152.80902495722094</v>
       </c>
       <c r="F40" s="94">
         <f t="shared" si="1"/>
-        <v>1960.1385330009816</v>
+        <v>1919.809024957221</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -26912,11 +26912,11 @@
       </c>
       <c r="E41" s="93">
         <f t="shared" si="0"/>
-        <v>202.75720357488444</v>
+        <v>160.41920842990652</v>
       </c>
       <c r="F41" s="94">
         <f t="shared" si="1"/>
-        <v>2057.7572035748844</v>
+        <v>2015.4192084299066</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
@@ -26935,11 +26935,11 @@
       </c>
       <c r="E42" s="93">
         <f t="shared" si="0"/>
-        <v>224.83642466497969</v>
+        <v>177.88803867402572</v>
       </c>
       <c r="F42" s="94">
         <f t="shared" si="1"/>
-        <v>2281.8364246649799</v>
+        <v>2234.8880386740257</v>
       </c>
       <c r="G42" s="29">
         <v>513044</v>
@@ -26960,11 +26960,11 @@
       </c>
       <c r="E43" s="93">
         <f t="shared" si="0"/>
-        <v>235.00161061239976</v>
+        <v>185.93061893493208</v>
       </c>
       <c r="F43" s="94">
         <f t="shared" si="1"/>
-        <v>2385.0016106123999</v>
+        <v>2335.9306189349322</v>
       </c>
       <c r="G43" s="29">
         <v>560278.69999999995</v>
@@ -26985,11 +26985,11 @@
       </c>
       <c r="E44" s="93">
         <f t="shared" si="0"/>
-        <v>252.81801178906076</v>
+        <v>200.02675423092927</v>
       </c>
       <c r="F44" s="94">
         <f t="shared" si="1"/>
-        <v>2565.8180117890606</v>
+        <v>2513.0267542309293</v>
       </c>
       <c r="G44" s="29">
         <v>430801.4</v>
@@ -27010,11 +27010,11 @@
       </c>
       <c r="E45" s="93">
         <f t="shared" si="0"/>
-        <v>193.4664422250919</v>
+        <v>153.0684630301534</v>
       </c>
       <c r="F45" s="94">
         <f t="shared" si="1"/>
-        <v>1963.4664422250919</v>
+        <v>1923.0684630301535</v>
       </c>
       <c r="G45" s="29">
         <v>424467.8</v>
@@ -27035,11 +27035,11 @@
       </c>
       <c r="E46" s="93">
         <f t="shared" si="0"/>
-        <v>171.38722113499665</v>
+        <v>135.59963278603419</v>
       </c>
       <c r="F46" s="94">
         <f t="shared" si="1"/>
-        <v>1739.3872211349967</v>
+        <v>1703.5996327860341</v>
       </c>
       <c r="G46" s="29">
         <v>725130.2</v>
@@ -27060,11 +27060,11 @@
       </c>
       <c r="E47" s="93">
         <f t="shared" si="0"/>
-        <v>179.03843636423758</v>
+        <v>141.65318782112502</v>
       </c>
       <c r="F47" s="94">
         <f t="shared" si="1"/>
-        <v>1817.0384363642377</v>
+        <v>1779.6531878211249</v>
       </c>
       <c r="G47" s="29">
         <v>353976</v>
@@ -27085,11 +27085,11 @@
       </c>
       <c r="E48" s="93">
         <f t="shared" si="0"/>
-        <v>199.36880825907775</v>
+        <v>157.73834834293774</v>
       </c>
       <c r="F48" s="94">
         <f t="shared" si="1"/>
-        <v>2023.3688082590777</v>
+        <v>1981.7383483429378</v>
       </c>
       <c r="G48" s="29">
         <v>271308.3</v>
@@ -27110,11 +27110,11 @@
       </c>
       <c r="E49" s="93">
         <f t="shared" si="0"/>
-        <v>170.95000883618289</v>
+        <v>135.25371535545759</v>
       </c>
       <c r="F49" s="94">
         <f t="shared" si="1"/>
-        <v>1734.9500088361829</v>
+        <v>1699.2537153554576</v>
       </c>
       <c r="G49" s="29">
         <v>520670.2</v>
@@ -27135,11 +27135,11 @@
       </c>
       <c r="E50" s="93">
         <f t="shared" si="0"/>
-        <v>246.04122115744738</v>
+        <v>194.66503405699169</v>
       </c>
       <c r="F50" s="94">
         <f t="shared" si="1"/>
-        <v>2497.0412211574476</v>
+        <v>2445.6650340569918</v>
       </c>
       <c r="G50" s="29">
         <v>1283269.6000000001</v>
@@ -27160,11 +27160,11 @@
       </c>
       <c r="E51" s="93">
         <f t="shared" si="0"/>
-        <v>264.40413770762558</v>
+        <v>209.19356614120963</v>
       </c>
       <c r="F51" s="94">
         <f t="shared" si="1"/>
-        <v>2683.4041377076255</v>
+        <v>2628.1935661412094</v>
       </c>
       <c r="G51" s="29">
         <v>1120779.1000000001</v>
@@ -27185,11 +27185,11 @@
       </c>
       <c r="E52" s="93">
         <f t="shared" si="0"/>
-        <v>343.32095764351055</v>
+        <v>271.63166236028917</v>
       </c>
       <c r="F52" s="94">
         <f t="shared" si="1"/>
-        <v>3484.3209576435106</v>
+        <v>3412.6316623602893</v>
       </c>
       <c r="G52" s="29">
         <v>969545.5</v>
@@ -27210,11 +27210,11 @@
       </c>
       <c r="E53" s="93">
         <f t="shared" si="0"/>
-        <v>287.24848032064494</v>
+        <v>227.26775188883792</v>
       </c>
       <c r="F53" s="94">
         <f t="shared" si="1"/>
-        <v>2915.2484803206448</v>
+        <v>2855.2677518888381</v>
       </c>
       <c r="G53" s="29">
         <v>667242.5</v>
@@ -27235,11 +27235,11 @@
       </c>
       <c r="E54" s="93">
         <f t="shared" si="0"/>
-        <v>234.23648908947567</v>
+        <v>185.325263431423</v>
       </c>
       <c r="F54" s="94">
         <f t="shared" si="1"/>
-        <v>2377.2364890894755</v>
+        <v>2328.3252634314231</v>
       </c>
       <c r="G54" s="29">
         <v>487818.6</v>
@@ -27262,11 +27262,11 @@
       </c>
       <c r="E55" s="93">
         <f t="shared" si="0"/>
-        <v>214.99914794166992</v>
+        <v>170.10489648605181</v>
       </c>
       <c r="F55" s="94">
         <f t="shared" si="1"/>
-        <v>2181.9991479416699</v>
+        <v>2137.104896486052</v>
       </c>
       <c r="G55" s="29">
         <v>952653.6</v>
@@ -27289,11 +27289,11 @@
       </c>
       <c r="E56" s="93">
         <f t="shared" si="0"/>
-        <v>170.95000883618289</v>
+        <v>135.25371535545759</v>
       </c>
       <c r="F56" s="94">
         <f t="shared" si="1"/>
-        <v>1734.9500088361829</v>
+        <v>1699.2537153554576</v>
       </c>
       <c r="G56" s="29">
         <v>146659.9</v>
@@ -27316,11 +27316,11 @@
       </c>
       <c r="E57" s="93">
         <f t="shared" si="0"/>
-        <v>203.9595373966223</v>
+        <v>161.37048136399221</v>
       </c>
       <c r="F57" s="94">
         <f>D57+E57</f>
-        <v>2069.9595373966222</v>
+        <v>2027.3704813639922</v>
       </c>
       <c r="G57" s="29">
         <v>680382.2</v>
@@ -27343,11 +27343,11 @@
       </c>
       <c r="E58" s="93">
         <f t="shared" si="0"/>
-        <v>183.30125627767183</v>
+        <v>145.02588276924703</v>
       </c>
       <c r="F58" s="94">
         <f t="shared" si="1"/>
-        <v>1860.3012562776719</v>
+        <v>1822.0258827692471</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="29">
@@ -27372,11 +27372,11 @@
       </c>
       <c r="E59" s="93">
         <f t="shared" si="0"/>
-        <v>254.34825483490894</v>
+        <v>201.23746523794742</v>
       </c>
       <c r="F59" s="94">
         <f t="shared" si="1"/>
-        <v>2581.3482548349089</v>
+        <v>2528.2374652379476</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="29">
@@ -27401,11 +27401,11 @@
       </c>
       <c r="E60" s="93">
         <f t="shared" si="0"/>
-        <v>263.31110696059119</v>
+        <v>208.32877256476809</v>
       </c>
       <c r="F60" s="94">
         <f t="shared" si="1"/>
-        <v>2672.3111069605911</v>
+        <v>2617.3287725647679</v>
       </c>
       <c r="G60" s="29"/>
       <c r="H60" s="29">
@@ -27430,11 +27430,11 @@
       </c>
       <c r="E61" s="93">
         <f t="shared" si="0"/>
-        <v>230.41088147485522</v>
+        <v>182.29848591387761</v>
       </c>
       <c r="F61" s="94">
         <f t="shared" si="1"/>
-        <v>2338.4108814748552</v>
+        <v>2290.2984859138778</v>
       </c>
       <c r="G61" s="29"/>
       <c r="H61" s="29">
@@ -27459,11 +27459,11 @@
       </c>
       <c r="E62" s="93">
         <f t="shared" si="0"/>
-        <v>244.07376581278544</v>
+        <v>193.1084056193969</v>
       </c>
       <c r="F62" s="94">
         <f t="shared" si="1"/>
-        <v>2477.0737658127855</v>
+        <v>2426.1084056193968</v>
       </c>
       <c r="G62" s="29"/>
       <c r="H62" s="29">
@@ -27488,11 +27488,11 @@
       </c>
       <c r="E63" s="93">
         <f t="shared" si="0"/>
-        <v>226.36666771082787</v>
+        <v>179.09874968104387</v>
       </c>
       <c r="F63" s="94">
         <f t="shared" si="1"/>
-        <v>2297.3666677108276</v>
+        <v>2250.098749681044</v>
       </c>
       <c r="G63" s="29"/>
       <c r="H63" s="29">
@@ -27517,11 +27517,11 @@
       </c>
       <c r="E64" s="93">
         <f t="shared" si="0"/>
-        <v>208.1130542353531</v>
+        <v>164.65669695447008</v>
       </c>
       <c r="F64" s="94">
         <f t="shared" si="1"/>
-        <v>2112.113054235353</v>
+        <v>2068.6566969544701</v>
       </c>
       <c r="G64" s="29"/>
       <c r="H64" s="29">
@@ -27546,11 +27546,11 @@
       </c>
       <c r="E65" s="93">
         <f t="shared" si="0"/>
-        <v>214.67123871755959</v>
+        <v>169.84545841311936</v>
       </c>
       <c r="F65" s="94">
         <f t="shared" si="1"/>
-        <v>2178.6712387175594</v>
+        <v>2133.8454584131196</v>
       </c>
       <c r="G65" s="29"/>
       <c r="H65" s="29">
@@ -27575,11 +27575,11 @@
       </c>
       <c r="E66" s="93">
         <f t="shared" si="0"/>
-        <v>234.12718601477224</v>
+        <v>185.23878407377885</v>
       </c>
       <c r="F66" s="94">
         <f t="shared" si="1"/>
-        <v>2376.1271860147722</v>
+        <v>2327.2387840737788</v>
       </c>
       <c r="G66" s="29"/>
       <c r="H66" s="29">
@@ -27604,11 +27604,11 @@
       </c>
       <c r="E67" s="93">
         <f t="shared" si="0"/>
-        <v>194.66877604682975</v>
+        <v>154.01973596423909</v>
       </c>
       <c r="F67" s="94">
         <f t="shared" si="1"/>
-        <v>1975.6687760468299</v>
+        <v>1935.0197359642391</v>
       </c>
       <c r="G67" s="29"/>
       <c r="H67" s="29">
@@ -27633,11 +27633,11 @@
       </c>
       <c r="E68" s="93">
         <f t="shared" si="0"/>
-        <v>207.89444808594621</v>
+        <v>164.48373823918178</v>
       </c>
       <c r="F68" s="94">
         <f t="shared" si="1"/>
-        <v>2109.8944480859464</v>
+        <v>2066.4837382391815</v>
       </c>
       <c r="G68" s="29"/>
       <c r="H68" s="29">
@@ -27662,11 +27662,11 @@
       </c>
       <c r="E69" s="93">
         <f t="shared" si="0"/>
-        <v>253.69243638668831</v>
+        <v>200.71858909208251</v>
       </c>
       <c r="F69" s="94">
         <f t="shared" si="1"/>
-        <v>2574.6924363866883</v>
+        <v>2521.7185890920823</v>
       </c>
       <c r="G69" s="29"/>
       <c r="H69" s="29">
@@ -27691,11 +27691,11 @@
       </c>
       <c r="E70" s="93">
         <f t="shared" si="0"/>
-        <v>250.52264722028849</v>
+        <v>198.21068772040201</v>
       </c>
       <c r="F70" s="94">
         <f t="shared" si="1"/>
-        <v>2542.5226472202885</v>
+        <v>2490.2106877204019</v>
       </c>
       <c r="G70" s="29"/>
       <c r="H70" s="29">
@@ -27720,11 +27720,11 @@
       </c>
       <c r="E71" s="93">
         <f t="shared" si="0"/>
-        <v>248.77379802503341</v>
+        <v>196.82701799809556</v>
       </c>
       <c r="F71" s="94">
         <f t="shared" si="1"/>
-        <v>2524.7737980250336</v>
+        <v>2472.8270179980955</v>
       </c>
       <c r="G71" s="29"/>
       <c r="H71" s="29">
@@ -27749,11 +27749,11 @@
       </c>
       <c r="E72" s="93">
         <f t="shared" si="0"/>
-        <v>228.22481998078638</v>
+        <v>180.5688987609945</v>
       </c>
       <c r="F72" s="94">
         <f t="shared" si="1"/>
-        <v>2316.2248199807864</v>
+        <v>2268.5688987609947</v>
       </c>
       <c r="G72" s="29"/>
       <c r="H72" s="29">
@@ -27970,14 +27970,14 @@
         <v>1550</v>
       </c>
       <c r="D80" s="75">
-        <v>151</v>
+        <v>1571</v>
       </c>
       <c r="E80" s="50">
         <v>62</v>
       </c>
       <c r="F80" s="94">
         <f t="shared" si="2"/>
-        <v>213</v>
+        <v>1633</v>
       </c>
       <c r="G80" s="29"/>
       <c r="H80" s="29">
@@ -28088,7 +28088,7 @@
       </c>
       <c r="M98">
         <f>GEOMEAN(L98:L107)</f>
-        <v>0.10930307470344175</v>
+        <v>8.6479357644154459E-2</v>
       </c>
     </row>
     <row r="99" spans="12:13" x14ac:dyDescent="0.3">
@@ -28130,7 +28130,7 @@
     <row r="105" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L105">
         <f t="shared" si="3"/>
-        <v>0.41059602649006621</v>
+        <v>3.9465308720560151E-2</v>
       </c>
     </row>
     <row r="106" spans="12:13" x14ac:dyDescent="0.3">
